--- a/pred_ohlcv/54_21/2019-11-18 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 ADA ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>28030.44102245999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>44801.38242245999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32616.37452245999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>36053.20462245999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>6094.587122459998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-47738.50457754</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-64555.44557754001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-30624.06457754</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-29163.74067754</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-17744.24927754</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17818.53027754</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-65031.43277754</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-98117.67667754</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-102978.40607754</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-90914.41097754</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-90902.29917754</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-97018.34407754001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-86507.05499578001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-66067.48335932</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-66045.16075932</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-80904.14645931999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-124776.82195932</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-750663.6502958199</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-810906.8849958199</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-809219.9333958199</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-812895.4941958198</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-707374.7067958199</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-687170.4118958199</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-844814.70649582</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-816015.66769582</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-821004.85749582</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-832560.3523958201</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-831366.6299958201</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-827145.6449958201</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-866086.5038958201</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-856086.5038958201</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-848481.5296958202</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1141501.399927621</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-18 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 ADA ohlcv.xlsx
@@ -1848,7 +1848,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>28030.44102245999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>44801.38242245999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32616.37452245999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>36053.20462245999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>11902.82452246</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>6094.587122459998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-47738.50457754</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-60800.97877754</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-64555.44557754001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-30624.06457754</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-17744.24927754</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17818.53027754</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-65031.43277754</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-98117.67667754</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-102978.40607754</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-97558.46347754</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-97558.46347754</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-97345.45367754</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-90914.41097754</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-90902.29917754</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-97018.34407754001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-86507.05499578001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-57191.76825932</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-66067.48335932</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-104976.23535932</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-105184.22645932</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-775582.9566958199</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-775582.9566958199</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-794151.3962958199</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-750663.6502958199</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-810906.8849958199</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-809219.9333958199</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-812895.4941958198</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-707374.7067958199</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-687170.4118958199</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-844814.70649582</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-816015.66769582</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-821004.85749582</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-832560.3523958201</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-831366.6299958201</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-827145.6449958201</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-820702.0700958201</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-866086.5038958201</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-856086.5038958201</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-848481.5296958202</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-889998.6789958202</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-783959.2553958202</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-949426.3896958205</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-899392.5244958205</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1141501.399927621</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1141501.399927621</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
